--- a/Galitproject/Galitproject/static/data/olim1.xlsx
+++ b/Galitproject/Galitproject/static/data/olim1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\לימודים י\מדעי המחשב גד\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\source\repos\Galitproject\Galitproject\Galitproject\static\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,9 +21,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
-    <t>סה"כ עולים</t>
-  </si>
-  <si>
     <t>ינואר</t>
   </si>
   <si>
@@ -144,7 +141,10 @@
     <t>2015</t>
   </si>
   <si>
-    <t>שנה</t>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>olim</t>
   </si>
 </sst>
 </file>
@@ -152,8 +152,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
-    <numFmt numFmtId="171" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="174" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -210,17 +210,17 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="174" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="174" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -533,9 +533,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R9" sqref="R9"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -546,52 +544,52 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>11</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>12</v>
       </c>
       <c r="O1" s="3"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B2" s="5">
         <v>1406641</v>
@@ -635,7 +633,7 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B3" s="5">
         <v>24029</v>
@@ -680,7 +678,7 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B4" s="5">
         <v>198416</v>
@@ -724,7 +722,7 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B5" s="5">
         <v>175278</v>
@@ -768,7 +766,7 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B6" s="5">
         <v>76538</v>
@@ -812,7 +810,7 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B7" s="5">
         <v>77080</v>
@@ -856,7 +854,7 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B8" s="5">
         <v>79947</v>
@@ -900,7 +898,7 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B9" s="5">
         <v>76733</v>
@@ -944,7 +942,7 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B10" s="5">
         <v>71402</v>
@@ -988,7 +986,7 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" s="5">
         <v>67175</v>
@@ -1032,7 +1030,7 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" s="5">
         <v>57846</v>
@@ -1076,7 +1074,7 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B13" s="5">
         <v>77864</v>
@@ -1120,7 +1118,7 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B14" s="5">
         <v>61365</v>
@@ -1164,7 +1162,7 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B15" s="5">
         <v>44640</v>
@@ -1208,7 +1206,7 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B16" s="5">
         <v>35313</v>
@@ -1252,7 +1250,7 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B17" s="5">
         <v>24899</v>
@@ -1296,7 +1294,7 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B18" s="5">
         <v>22880</v>
@@ -1340,7 +1338,7 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B19" s="5">
         <v>23265</v>
@@ -1384,7 +1382,7 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B20" s="5">
         <v>21336</v>
@@ -1428,7 +1426,7 @@
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B21" s="5">
         <v>20343</v>
@@ -1472,7 +1470,7 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B22" s="5">
         <v>16291</v>
@@ -1516,7 +1514,7 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B23" s="5">
         <v>17194</v>
@@ -1560,7 +1558,7 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B24" s="5">
         <v>19291</v>
@@ -1604,7 +1602,7 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B25" s="5">
         <v>19380</v>
@@ -1648,7 +1646,7 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B26" s="5">
         <v>18944</v>
@@ -1692,7 +1690,7 @@
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B27" s="5">
         <v>20138</v>
@@ -1736,7 +1734,7 @@
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B28" s="5">
         <v>27607</v>
@@ -1780,7 +1778,7 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B29" s="5">
         <v>31447</v>
